--- a/TSumNvmNdt/bom_price.xlsx
+++ b/TSumNvmNdt/bom_price.xlsx
@@ -35,6 +35,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1NDg1TkxXRlQzRw==" sheetId="27" state="visible" r:id="rId27"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1NDg5TkxUMUc=" sheetId="28" state="visible" r:id="rId28"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1NDg5TkxUM0c=" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1NDg5TkxXRlQxRw==" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1NDg5TkxXRlQzRw==" sheetId="31" state="visible" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1360,6 +1362,42 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/TSumNvmNdt/bom_price.xlsx
+++ b/TSumNvmNdt/bom_price.xlsx
@@ -37,6 +37,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1NDg5TkxUM0c=" sheetId="29" state="visible" r:id="rId29"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1NDg5TkxXRlQxRw==" sheetId="30" state="visible" r:id="rId30"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1NDg5TkxXRlQzRw==" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1ODUyTkxUMUc=" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1ODUyTkxXRlQxRw==" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1ODUzTkxUMUc=" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1ODUzTkxXRlQxRw==" sheetId="35" state="visible" r:id="rId35"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1398,97 +1402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1505,7 +1419,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>NDT451N</t>
+          <t>NVMFD5852NLT1G</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1515,27 +1429,27 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>深圳市松源丰电子有限公司</t>
+          <t>深圳市天地昆电子有限公司</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>SOT223</t>
+          <t>DFN-8</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>09+</t>
+          <t>19+</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>￥1</t>
+          <t>￥450</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>两年前</t>
+          <t>2022/11</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -1550,4 +1464,351 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>NVMFD5852NLWFT1G</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>深圳市华铭鑫业电子有限公司</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DFN-8</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>18+</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>￥32</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>2022/06</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+      <c r="J1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>NVMFD5853NLT1G</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>￥85</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>2022/11</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+      <c r="J1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>NVMFD5853NLWFT1G</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>￥120</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>2022/11</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+      <c r="J1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>NDT451N</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>深圳市松源丰电子有限公司</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>SOT223</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>09+</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>￥1</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+      <c r="J1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/TSumNvmNdt/bom_price.xlsx
+++ b/TSumNvmNdt/bom_price.xlsx
@@ -41,6 +41,46 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1ODUyTkxXRlQxRw==" sheetId="33" state="visible" r:id="rId33"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1ODUzTkxUMUc=" sheetId="34" state="visible" r:id="rId34"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1ODUzTkxXRlQxRw==" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1ODUzTlQxRw==" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1ODUzTldGVDFH" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1ODczTkxUMUc=" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1ODczTkxXRlQxRw==" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1ODc1TkxUMUc=" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1ODc1TkxUM0c=" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1ODc1TkxXRlQxRw==" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1ODc1TkxXRlQzRw==" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1ODc3TkxUMUc=" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1ODc3TkxUM0c=" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1ODc3TkxXRlQxRw==" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1ODc3TkxXRlQzRw==" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRkQ1QzQ3ME5MV0ZUMUc=" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM0ODQxTlQxRw==" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM0ODQxTldGVDFH" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM0QzAxTlQzRw==" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM0QzAxTldGVDNH" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM0QzAzTlQzRw==" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM0QzAzTldGVDNH" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM0QzA1TlQzRw==" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM0QzA1TldGVDNH" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM0QzMxME5UM0c=" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM0QzMxME5XRlQzRw==" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM1ODI2TkxUMUc=" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM1ODI2TkxUM0c=" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM1ODI2TkxXRlQxRw==" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM1ODI2TkxXRlQzRw==" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM1ODMwTkxUMUc=" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM1ODMwTkxUM0c=" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM1ODMwTkxXRlQzRw==" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM1ODMyTkxUMUc=" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM1ODMyTkxUM0c=" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM1ODMzTlQxRw==" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM1ODMzTldGVDFH" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM1ODM0TkxUMUc=" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM1ODM0TkxUM0c=" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM1ODM0TkxXRlQzRw==" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM1ODQ0TkxUMUc=" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM1ODQ0TkxUM0c=" sheetId="74" state="visible" r:id="rId74"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TlZNRlM1ODQ0TkxXRlQzRw==" sheetId="75" state="visible" r:id="rId75"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1644,7 +1684,6 @@
           <t>2022/11</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr"/>
       <c r="I1" t="inlineStr">
         <is>
           <t>2023-02-22</t>
@@ -1659,97 +1698,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1766,7 +1751,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>NDT451N</t>
+          <t>NVMFD5873NLT1G</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1776,27 +1761,27 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>深圳市松源丰电子有限公司</t>
+          <t>《此供应商选择了隐藏公司名》</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>SOT223</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>09+</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>￥1</t>
+          <t>￥28</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>两年前</t>
+          <t>2022/10</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -1811,4 +1796,1376 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>NVMFD5875NLT1G</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>深圳市天地昆电子有限公司</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>QFN</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>19+</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>￥200</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>2022/12</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+      <c r="J1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>NVMFD5877NLT1G</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>深圳市长润泽科技有限公司</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DFN8</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>21+</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>￥70</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>1月内</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+      <c r="J1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>NVMFD5877NLT3G</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>深圳市广鑫世纪电子有限公司</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DFN8</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>21+</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>￥5.5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>1月内</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+      <c r="J1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>NVMFD5877NLWFT1G</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>深圳市灿裕盛电子有限公司</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DFN8</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>22+</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>￥4</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>1月内</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+      <c r="J1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>NVMFD5C470NLWFT1G</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>伯仲电子有限公司</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DFN-8</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>21+</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>￥180</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>2023/01</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+      <c r="J1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>NVMFS5826NLT1G</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>￥1000</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>2022/09</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+      <c r="J1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>NVMFS5826NLWFT1G</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>￥48</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>2022/09</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+      <c r="J1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>NVMFS5830NLT1G</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>深圳市鼎德丰科技有限公司</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DFN8</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>21+</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>￥100</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>1月内</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+      <c r="J1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>NVMFS5832NLT1G</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>￥250</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>2022/12</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+      <c r="J1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>NVMFS5833NT1G</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>深圳市强达兴科技有限公司</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DFN8</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>19+</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>￥1.2</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>2021/03</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+      <c r="J1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>NVMFS5844NLT1G</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>深圳市弘民电子有限公司</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>SO-8FL</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>13+</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>￥3.8</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>2022/11</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+      <c r="J1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>NVMFS5844NLT3G</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>￥30</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>2022/08</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+      <c r="J1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>NDT451N</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>深圳市松源丰电子有限公司</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>SOT223</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>09+</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>￥1</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+      <c r="J1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>